--- a/LoveDocs/excel/result.xlsx
+++ b/LoveDocs/excel/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>resultvalue</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,14 @@
   </si>
   <si>
     <t>id#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -433,18 +441,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -452,10 +461,13 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -463,10 +475,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -474,10 +489,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -485,10 +503,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -496,10 +517,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -507,10 +531,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -518,10 +545,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -529,10 +559,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -540,10 +573,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>4</v>
       </c>
@@ -551,6 +587,9 @@
         <v>4</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
     </row>
